--- a/Data/medDRABrowser.xlsx
+++ b/Data/medDRABrowser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IQVIA\Automation\seleniumuiautomation-master\seleniumuiautomation-master\Framework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93DDAAA-F27F-402D-B5F6-E2280ACDC0D6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A680927-5D1B-46F6-A486-27276AD51ACC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{D04D5D39-E628-4121-8B19-BB2E44A0C62B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D04D5D39-E628-4121-8B19-BB2E44A0C62B}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="67">
   <si>
     <t>TCID</t>
   </si>
@@ -152,43 +152,82 @@
     <t>EN</t>
   </si>
   <si>
-    <t>medDRA_Browser_cancel_xpath</t>
-  </si>
-  <si>
-    <t>medDRA_Browser_clearall_xpath</t>
-  </si>
-  <si>
     <t>21.0</t>
   </si>
   <si>
     <t>JA</t>
   </si>
   <si>
-    <t>medDRASearchPanel</t>
-  </si>
-  <si>
-    <t>medDRAResultPanel</t>
-  </si>
-  <si>
-    <t>medDRAActionPanel</t>
-  </si>
-  <si>
-    <t>medDRASpecicHierarchy</t>
-  </si>
-  <si>
-    <t>medDRASpecicHierarchyWithSynonym</t>
-  </si>
-  <si>
-    <t>medDRAAllHierarchy</t>
-  </si>
-  <si>
-    <t>medDRAAllHierarchyWithSynonym</t>
-  </si>
-  <si>
-    <t>21.1</t>
-  </si>
-  <si>
     <t>HLGT</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>V_21.1</t>
+  </si>
+  <si>
+    <t>V_21.0</t>
+  </si>
+  <si>
+    <t>Lang_EN</t>
+  </si>
+  <si>
+    <t>Lang_JA</t>
+  </si>
+  <si>
+    <t>medDRA_Browser_Search_xpath</t>
+  </si>
+  <si>
+    <t>medDRA_Browser_Cancel_xpath</t>
+  </si>
+  <si>
+    <t>medDRA_Browser_Clearall_xpath</t>
+  </si>
+  <si>
+    <t>verifyElementPresent</t>
+  </si>
+  <si>
+    <t>medDRA_SOC_ResultBox_xpath</t>
+  </si>
+  <si>
+    <t>medDRA_HLGT_ResultBox_xpath</t>
+  </si>
+  <si>
+    <t>medDRA_HLT_ResultBox_xpath</t>
+  </si>
+  <si>
+    <t>medDRA_PT_ResultBox_xpath</t>
+  </si>
+  <si>
+    <t>medDRA_Synonym_ResultBox_xpath</t>
+  </si>
+  <si>
+    <t>verifyElementNotPresent</t>
+  </si>
+  <si>
+    <t>medDRA_LLT_ResultBox_xpath</t>
+  </si>
+  <si>
+    <t>salesforce_setup_xpath</t>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>medDRALaunch_2829</t>
+  </si>
+  <si>
+    <t>medDRASearch_2842</t>
+  </si>
+  <si>
+    <t>medDRAAction_2834</t>
+  </si>
+  <si>
+    <t>medDRAAction_2835</t>
   </si>
 </sst>
 </file>
@@ -226,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,8 +284,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -282,12 +333,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -303,6 +365,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -618,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2689E4-3852-4D94-8747-3867A70DF787}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +706,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -648,7 +714,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -656,49 +722,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -710,17 +744,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE446EB-FC27-4393-BD4E-581796F2270A}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" style="10" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
@@ -745,7 +779,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
@@ -758,7 +792,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
@@ -771,7 +805,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
@@ -784,7 +818,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
@@ -799,7 +833,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
@@ -814,7 +848,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
@@ -827,7 +861,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
@@ -840,7 +874,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="8" t="s">
@@ -853,7 +887,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="8" t="s">
@@ -866,7 +900,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="8" t="s">
@@ -879,7 +913,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="8" t="s">
@@ -894,7 +928,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="8" t="s">
@@ -907,7 +941,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="8" t="s">
@@ -922,7 +956,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="8" t="s">
@@ -934,8 +968,8 @@
       <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>22</v>
+      <c r="A16" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="8" t="s">
@@ -949,8 +983,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>22</v>
+      <c r="A17" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="8" t="s">
@@ -959,13 +993,13 @@
       <c r="D17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="11">
-        <v>21.1</v>
+      <c r="E17" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>22</v>
+      <c r="A18" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="8" t="s">
@@ -975,151 +1009,318 @@
         <v>39</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>22</v>
+      <c r="A19" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="11"/>
+      <c r="D19" s="15" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="2"/>
+      <c r="A20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="11"/>
       <c r="C20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>34</v>
+        <v>14</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="11"/>
+      <c r="A21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>22</v>
+      <c r="A22" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="8" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>22</v>
+      <c r="A23" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2"/>
+      <c r="A24" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="11"/>
       <c r="C24" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>22</v>
+      <c r="A25" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>53</v>
+      <c r="D26" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>22</v>
+      <c r="A27" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>22</v>
+      <c r="A28" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>40</v>
+      <c r="E31" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1129,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188FE217-0495-4123-92F1-A2174021A413}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,14 +1352,17 @@
     <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1180,8 +1384,38 @@
       <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1203,8 +1437,38 @@
       <c r="G3" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="11">
+        <v>21.1</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>

--- a/Data/medDRABrowser.xlsx
+++ b/Data/medDRABrowser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IQVIA\Automation\seleniumuiautomation-master\seleniumuiautomation-master\Framework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A680927-5D1B-46F6-A486-27276AD51ACC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2DF98B-DE16-4941-950D-50E6789F9D3C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D04D5D39-E628-4121-8B19-BB2E44A0C62B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D04D5D39-E628-4121-8B19-BB2E44A0C62B}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="70">
   <si>
     <t>TCID</t>
   </si>
@@ -98,9 +98,6 @@
     <t>medDRALaunch</t>
   </si>
   <si>
-    <t>MedDRA Launch Component</t>
-  </si>
-  <si>
     <t>isElementPresent</t>
   </si>
   <si>
@@ -228,6 +225,18 @@
   </si>
   <si>
     <t>medDRAAction_2835</t>
+  </si>
+  <si>
+    <t>MedDRA Browser</t>
+  </si>
+  <si>
+    <t>cases_xpath</t>
+  </si>
+  <si>
+    <t>case_record_xpath</t>
+  </si>
+  <si>
+    <t>jsclick</t>
   </si>
 </sst>
 </file>
@@ -686,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2689E4-3852-4D94-8747-3867A70DF787}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,7 +715,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -714,7 +723,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -722,7 +731,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -730,7 +739,7 @@
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -744,10 +753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE446EB-FC27-4393-BD4E-581796F2270A}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +788,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
@@ -792,7 +801,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
@@ -805,7 +814,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
@@ -818,7 +827,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
@@ -833,7 +842,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
@@ -848,7 +857,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
@@ -861,7 +870,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
@@ -874,453 +883,492 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="8" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="11"/>
+        <v>62</v>
+      </c>
+      <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="9" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>32</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="B13" s="11"/>
       <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="B14" s="11"/>
       <c r="C14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>34</v>
+        <v>14</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="D16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="11"/>
+      <c r="A17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="8" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="2"/>
+      <c r="A18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="11"/>
       <c r="C18" s="8" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>49</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="B19" s="11"/>
       <c r="C19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>50</v>
+        <v>29</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9" t="s">
         <v>29</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="11"/>
+      <c r="D22" s="15" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>66</v>
+      <c r="A23" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="11"/>
+      <c r="A24" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="8" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>47</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="2"/>
+      <c r="A25" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="11"/>
       <c r="C25" s="8" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>48</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="B26" s="11"/>
       <c r="C26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>50</v>
+        <v>29</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9" t="s">
         <v>29</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>64</v>
+      <c r="A30" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>64</v>
+      <c r="A31" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="11"/>
+      <c r="E32" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9" t="s">
         <v>29</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" s="8" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" s="8" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="B40" s="11"/>
       <c r="C40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="D43" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="8" t="s">
+      <c r="B44" s="2"/>
+      <c r="C44" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1330,15 +1378,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188FE217-0495-4123-92F1-A2174021A413}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
@@ -1359,7 +1407,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1379,40 +1427,40 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="Q2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1423,49 +1471,49 @@
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="M3" s="11">
         <v>21.1</v>
       </c>
       <c r="N3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="Q3" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1477,12 +1525,351 @@
       <c r="F4" s="12"/>
       <c r="G4" s="14"/>
     </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="11">
+        <v>21.1</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="11">
+        <v>21.1</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="11">
+        <v>21.1</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{9642F949-FE0F-420C-A022-E792FBF9E414}"/>
     <hyperlink ref="D3" r:id="rId2" display="Sapient@123" xr:uid="{30A54950-B359-40F7-820A-3ABA3E5BA3AC}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{8ABA3939-0558-4D30-BEB5-6D6F41481380}"/>
+    <hyperlink ref="D7" r:id="rId4" display="Sapient@123" xr:uid="{FADE9630-241E-45AB-B6F7-BD76B1BFB835}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{8A13CEB8-7FDC-4E21-92F8-8AB8E3489691}"/>
+    <hyperlink ref="D11" r:id="rId6" display="Sapient@123" xr:uid="{CDA0EAF7-F8ED-4C70-8629-25FD7D9B184A}"/>
+    <hyperlink ref="C15" r:id="rId7" xr:uid="{8E751603-F0A3-43A7-8773-F2A8F54D8F4C}"/>
+    <hyperlink ref="D15" r:id="rId8" display="Sapient@123" xr:uid="{4A7CC64D-73F3-4D81-B275-FEC679AF2C8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId9"/>
 </worksheet>
 </file>